--- a/mapping_template.xlsx
+++ b/mapping_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinakorshoejwinslow/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB864E2-C1A5-BF4D-B807-FE6C9A93C96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD352E3-0B10-1444-84BA-2983FC9C49F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16000" xr2:uid="{6981B5DD-70AD-8A43-8EA5-44E4BB9B9403}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>New Item No.</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -425,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AB1EE2-0847-5640-A0ED-34996D6E2025}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,7 +431,7 @@
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,12 +444,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
